--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
   <si>
     <t>Doi</t>
   </si>
@@ -172,6 +172,27 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,   Kun%Yang%NULL%0,   Yujia%Cao%NULL%1,   Mei Hong%Xiu%xiumeihong97@163.com%1,   Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,   Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,    Li-Gang%Zhang%NULL%0,    Lei-Lei%Wang%NULL%0,    Zhao-Chang%Guo%NULL%0,    Jing-Qi%Wang%NULL%0,    Jin-Cheng%Chen%NULL%0,    Mei%Liu%NULL%0,    Xi%Chen%NULL%0,    Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,    Cara A.%Palmer%NULL%1,    Jenna%Wilson%NULL%1,    Natalie%Shook%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,    Sümeyye%Ulaş%NULL%2,    Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,    Kun%Yang%NULL%0,    Yujia%Cao%NULL%1,    Mei Hong%Xiu%xiumeihong97@163.com%1,    Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,    Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -482,6 +503,9 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -497,7 +521,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -507,6 +531,9 @@
       </c>
       <c r="H2" t="s">
         <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +550,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -533,6 +560,9 @@
       </c>
       <c r="H3" t="s">
         <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +579,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -559,6 +589,9 @@
       </c>
       <c r="H4" t="s">
         <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +608,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -585,6 +618,9 @@
       </c>
       <c r="H5" t="s">
         <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="65">
   <si>
     <t>Doi</t>
   </si>
@@ -193,6 +193,42 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,    Kun%Yang%NULL%0,    Yujia%Cao%NULL%1,    Mei Hong%Xiu%xiumeihong97@163.com%1,    Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,    Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,     Li-Gang%Zhang%NULL%0,     Lei-Lei%Wang%NULL%0,     Zhao-Chang%Guo%NULL%0,     Jing-Qi%Wang%NULL%0,     Jin-Cheng%Chen%NULL%0,     Mei%Liu%NULL%0,     Xi%Chen%NULL%0,     Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,     Cara A.%Palmer%NULL%0,     Jenna%Wilson%NULL%0,     Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,     Sümeyye%Ulaş%NULL%0,     Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,     Kun%Yang%NULL%0,     Yujia%Cao%NULL%1,     Mei Hong%Xiu%xiumeihong97@163.com%1,     Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,     Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,      Li-Gang%Zhang%NULL%0,      Lei-Lei%Wang%NULL%0,      Zhao-Chang%Guo%NULL%0,      Jing-Qi%Wang%NULL%0,      Jin-Cheng%Chen%NULL%0,      Mei%Liu%NULL%0,      Xi%Chen%NULL%0,      Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,      Cara A.%Palmer%NULL%0,      Jenna%Wilson%NULL%0,      Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,      Sümeyye%Ulaş%NULL%0,      Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,      Kun%Yang%NULL%0,      Yujia%Cao%NULL%1,      Mei Hong%Xiu%xiumeihong97@163.com%1,      Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,      Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,       Li-Gang%Zhang%NULL%0,       Lei-Lei%Wang%NULL%0,       Zhao-Chang%Guo%NULL%0,       Jing-Qi%Wang%NULL%0,       Jin-Cheng%Chen%NULL%0,       Mei%Liu%NULL%0,       Xi%Chen%NULL%0,       Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,       Cara A.%Palmer%NULL%0,       Jenna%Wilson%NULL%0,       Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,       Sümeyye%Ulaş%NULL%0,       Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,       Kun%Yang%NULL%0,       Yujia%Cao%NULL%1,       Mei Hong%Xiu%xiumeihong97@163.com%1,       Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,       Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -521,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -550,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -579,7 +615,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -608,7 +644,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="73">
   <si>
     <t>Doi</t>
   </si>
@@ -229,6 +229,30 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,       Kun%Yang%NULL%0,       Yujia%Cao%NULL%1,       Mei Hong%Xiu%xiumeihong97@163.com%1,       Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,       Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,        Li-Gang%Zhang%NULL%0,        Lei-Lei%Wang%NULL%0,        Zhao-Chang%Guo%NULL%0,        Jing-Qi%Wang%NULL%0,        Jin-Cheng%Chen%NULL%0,        Mei%Liu%NULL%0,        Xi%Chen%NULL%0,        Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,        Cara A.%Palmer%NULL%0,        Jenna%Wilson%NULL%0,        Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,        Sümeyye%Ulaş%NULL%0,        Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,        Kun%Yang%NULL%0,        Yujia%Cao%NULL%1,        Mei Hong%Xiu%xiumeihong97@163.com%1,        Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,        Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,         Li-Gang%Zhang%NULL%0,         Lei-Lei%Wang%NULL%0,         Zhao-Chang%Guo%NULL%0,         Jing-Qi%Wang%NULL%0,         Jin-Cheng%Chen%NULL%0,         Mei%Liu%NULL%0,         Xi%Chen%NULL%0,         Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,         Cara A.%Palmer%NULL%0,         Jenna%Wilson%NULL%0,         Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,         Sümeyye%Ulaş%NULL%0,         Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,         Kun%Yang%NULL%0,         Yujia%Cao%NULL%1,         Mei Hong%Xiu%xiumeihong97@163.com%1,         Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,         Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -557,7 +581,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -586,7 +610,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -615,7 +639,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -644,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="81">
   <si>
     <t>Doi</t>
   </si>
@@ -253,6 +253,30 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,         Kun%Yang%NULL%0,         Yujia%Cao%NULL%1,         Mei Hong%Xiu%xiumeihong97@163.com%1,         Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,         Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,          Li-Gang%Zhang%NULL%0,          Lei-Lei%Wang%NULL%0,          Zhao-Chang%Guo%NULL%0,          Jing-Qi%Wang%NULL%0,          Jin-Cheng%Chen%NULL%0,          Mei%Liu%NULL%0,          Xi%Chen%NULL%0,          Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,          Cara A.%Palmer%NULL%0,          Jenna%Wilson%NULL%0,          Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,          Sümeyye%Ulaş%NULL%0,          Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,          Kun%Yang%NULL%0,          Yujia%Cao%NULL%1,          Mei Hong%Xiu%xiumeihong97@163.com%1,          Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,          Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,           Li-Gang%Zhang%NULL%0,           Lei-Lei%Wang%NULL%0,           Zhao-Chang%Guo%NULL%0,           Jing-Qi%Wang%NULL%0,           Jin-Cheng%Chen%NULL%0,           Mei%Liu%NULL%0,           Xi%Chen%NULL%0,           Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,           Cara A.%Palmer%NULL%0,           Jenna%Wilson%NULL%0,           Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,           Sümeyye%Ulaş%NULL%0,           Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,           Kun%Yang%NULL%0,           Yujia%Cao%NULL%1,           Mei Hong%Xiu%xiumeihong97@163.com%1,           Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,           Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -581,7 +605,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -610,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -639,7 +663,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -668,7 +692,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="89">
   <si>
     <t>Doi</t>
   </si>
@@ -277,6 +277,30 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,           Kun%Yang%NULL%0,           Yujia%Cao%NULL%1,           Mei Hong%Xiu%xiumeihong97@163.com%1,           Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,           Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,            Li-Gang%Zhang%NULL%0,            Lei-Lei%Wang%NULL%0,            Zhao-Chang%Guo%NULL%0,            Jing-Qi%Wang%NULL%0,            Jin-Cheng%Chen%NULL%0,            Mei%Liu%NULL%0,            Xi%Chen%NULL%0,            Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,            Cara A.%Palmer%NULL%0,            Jenna%Wilson%NULL%0,            Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,            Sümeyye%Ulaş%NULL%0,            Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,            Kun%Yang%NULL%0,            Yujia%Cao%NULL%1,            Mei Hong%Xiu%xiumeihong97@163.com%1,            Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,            Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,             Li-Gang%Zhang%NULL%0,             Lei-Lei%Wang%NULL%0,             Zhao-Chang%Guo%NULL%0,             Jing-Qi%Wang%NULL%0,             Jin-Cheng%Chen%NULL%0,             Mei%Liu%NULL%0,             Xi%Chen%NULL%0,             Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,             Cara A.%Palmer%NULL%0,             Jenna%Wilson%NULL%0,             Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,             Sümeyye%Ulaş%NULL%0,             Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,             Kun%Yang%NULL%0,             Yujia%Cao%NULL%1,             Mei Hong%Xiu%xiumeihong97@163.com%1,             Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,             Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -605,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -634,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -663,7 +687,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -692,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="93">
   <si>
     <t>Doi</t>
   </si>
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,             Kun%Yang%NULL%0,             Yujia%Cao%NULL%1,             Mei Hong%Xiu%xiumeihong97@163.com%1,             Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,             Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,              Li-Gang%Zhang%NULL%0,              Lei-Lei%Wang%NULL%0,              Zhao-Chang%Guo%NULL%0,              Jing-Qi%Wang%NULL%0,              Jin-Cheng%Chen%NULL%0,              Mei%Liu%NULL%0,              Xi%Chen%NULL%0,              Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,              Cara A.%Palmer%NULL%0,              Jenna%Wilson%NULL%0,              Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,              Sümeyye%Ulaş%NULL%0,              Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,              Kun%Yang%NULL%0,              Yujia%Cao%NULL%1,              Mei Hong%Xiu%xiumeihong97@163.com%1,              Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,              Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -629,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -658,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -687,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -716,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="97">
   <si>
     <t>Doi</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,              Kun%Yang%NULL%0,              Yujia%Cao%NULL%1,              Mei Hong%Xiu%xiumeihong97@163.com%1,              Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,              Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,               Li-Gang%Zhang%NULL%0,               Lei-Lei%Wang%NULL%0,               Zhao-Chang%Guo%NULL%0,               Jing-Qi%Wang%NULL%0,               Jin-Cheng%Chen%NULL%0,               Mei%Liu%NULL%0,               Xi%Chen%NULL%0,               Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,               Cara A.%Palmer%NULL%0,               Jenna%Wilson%NULL%0,               Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,               Sümeyye%Ulaş%NULL%0,               Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,               Kun%Yang%NULL%0,               Yujia%Cao%NULL%1,               Mei Hong%Xiu%xiumeihong97@163.com%1,               Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,               Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -641,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -670,7 +682,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -699,7 +711,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -728,7 +740,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="105">
   <si>
     <t>Doi</t>
   </si>
@@ -325,6 +325,30 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,               Kun%Yang%NULL%0,               Yujia%Cao%NULL%1,               Mei Hong%Xiu%xiumeihong97@163.com%1,               Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,               Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                Li-Gang%Zhang%NULL%0,                Lei-Lei%Wang%NULL%0,                Zhao-Chang%Guo%NULL%0,                Jing-Qi%Wang%NULL%0,                Jin-Cheng%Chen%NULL%0,                Mei%Liu%NULL%0,                Xi%Chen%NULL%0,                Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                Cara A.%Palmer%NULL%0,                Jenna%Wilson%NULL%0,                Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                Sümeyye%Ulaş%NULL%0,                Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                Kun%Yang%NULL%0,                Yujia%Cao%NULL%1,                Mei Hong%Xiu%xiumeihong97@163.com%1,                Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                 Li-Gang%Zhang%NULL%0,                 Lei-Lei%Wang%NULL%0,                 Zhao-Chang%Guo%NULL%0,                 Jing-Qi%Wang%NULL%0,                 Jin-Cheng%Chen%NULL%0,                 Mei%Liu%NULL%0,                 Xi%Chen%NULL%0,                 Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                 Cara A.%Palmer%NULL%0,                 Jenna%Wilson%NULL%0,                 Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                 Sümeyye%Ulaş%NULL%0,                 Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                 Kun%Yang%NULL%0,                 Yujia%Cao%NULL%1,                 Mei Hong%Xiu%xiumeihong97@163.com%1,                 Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                 Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -653,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -682,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -711,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -740,7 +764,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="109">
   <si>
     <t>Doi</t>
   </si>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,                 Kun%Yang%NULL%0,                 Yujia%Cao%NULL%1,                 Mei Hong%Xiu%xiumeihong97@163.com%1,                 Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                 Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                  Li-Gang%Zhang%NULL%0,                  Lei-Lei%Wang%NULL%0,                  Zhao-Chang%Guo%NULL%0,                  Jing-Qi%Wang%NULL%0,                  Jin-Cheng%Chen%NULL%0,                  Mei%Liu%NULL%0,                  Xi%Chen%NULL%0,                  Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                  Cara A.%Palmer%NULL%0,                  Jenna%Wilson%NULL%0,                  Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                  Sümeyye%Ulaş%NULL%0,                  Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                  Kun%Yang%NULL%0,                  Yujia%Cao%NULL%1,                  Mei Hong%Xiu%xiumeihong97@163.com%1,                  Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                  Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -677,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -706,7 +718,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -735,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -764,7 +776,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="115">
   <si>
     <t>Doi</t>
   </si>
@@ -361,6 +361,24 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,                  Kun%Yang%NULL%0,                  Yujia%Cao%NULL%1,                  Mei Hong%Xiu%xiumeihong97@163.com%1,                  Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                  Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                   Li-Gang%Zhang%NULL%0,                   Lei-Lei%Wang%NULL%0,                   Zhao-Chang%Guo%NULL%0,                   Jing-Qi%Wang%NULL%0,                   Jin-Cheng%Chen%NULL%0,                   Mei%Liu%NULL%0,                   Xi%Chen%NULL%0,                   Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                   Cara A.%Palmer%NULL%0,                   Jenna%Wilson%NULL%0,                   Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                   Sümeyye%Ulaş%NULL%0,                   Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                   Kun%Yang%NULL%1,                   Yujia%Cao%NULL%1,                   Mei Hong%Xiu%xiumeihong97@163.com%1,                   Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                   Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -689,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -701,7 +719,7 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -718,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -730,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -747,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -759,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -776,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -788,7 +806,7 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="119">
   <si>
     <t>Doi</t>
   </si>
@@ -379,6 +379,18 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,                   Kun%Yang%NULL%1,                   Yujia%Cao%NULL%1,                   Mei Hong%Xiu%xiumeihong97@163.com%1,                   Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                   Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                    Li-Gang%Zhang%NULL%0,                    Lei-Lei%Wang%NULL%0,                    Zhao-Chang%Guo%NULL%0,                    Jing-Qi%Wang%NULL%0,                    Jin-Cheng%Chen%NULL%0,                    Mei%Liu%NULL%0,                    Xi%Chen%NULL%0,                    Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                    Cara A.%Palmer%NULL%0,                    Jenna%Wilson%NULL%0,                    Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                    Sümeyye%Ulaş%NULL%0,                    Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                    Kun%Yang%NULL%1,                    Yujia%Cao%NULL%1,                    Mei Hong%Xiu%xiumeihong97@163.com%1,                    Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                    Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -707,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -736,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -765,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -794,7 +806,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="141">
   <si>
     <t>Doi</t>
   </si>
@@ -391,6 +391,72 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,                    Kun%Yang%NULL%1,                    Yujia%Cao%NULL%1,                    Mei Hong%Xiu%xiumeihong97@163.com%1,                    Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                    Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                     Li-Gang%Zhang%NULL%0,                     Lei-Lei%Wang%NULL%0,                     Zhao-Chang%Guo%NULL%0,                     Jing-Qi%Wang%NULL%0,                     Jin-Cheng%Chen%NULL%0,                     Mei%Liu%NULL%0,                     Xi%Chen%NULL%0,                     Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                     Cara A.%Palmer%NULL%0,                     Jenna%Wilson%NULL%0,                     Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                     Sümeyye%Ulaş%NULL%0,                     Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                     Kun%Yang%NULL%1,                     Yujia%Cao%NULL%1,                     Mei Hong%Xiu%xiumeihong97@163.com%1,                     Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                     Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                      Li-Gang%Zhang%NULL%0,                      Lei-Lei%Wang%NULL%0,                      Zhao-Chang%Guo%NULL%0,                      Jing-Qi%Wang%NULL%0,                      Jin-Cheng%Chen%NULL%0,                      Mei%Liu%NULL%0,                      Xi%Chen%NULL%0,                      Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                      Cara A.%Palmer%NULL%0,                      Jenna%Wilson%NULL%0,                      Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                      Sümeyye%Ulaş%NULL%0,                      Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                      Kun%Yang%NULL%1,                      Yujia%Cao%NULL%1,                      Mei Hong%Xiu%xiumeihong97@163.com%1,                      Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                      Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                       Li-Gang%Zhang%NULL%0,                       Lei-Lei%Wang%NULL%0,                       Zhao-Chang%Guo%NULL%0,                       Jing-Qi%Wang%NULL%0,                       Jin-Cheng%Chen%NULL%0,                       Mei%Liu%NULL%0,                       Xi%Chen%NULL%0,                       Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                       Cara A.%Palmer%NULL%0,                       Jenna%Wilson%NULL%0,                       Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                       Sümeyye%Ulaş%NULL%0,                       Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                       Kun%Yang%NULL%1,                       Yujia%Cao%NULL%1,                       Mei Hong%Xiu%xiumeihong97@163.com%1,                       Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                       Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                        Li-Gang%Zhang%NULL%0,                        Lei-Lei%Wang%NULL%0,                        Zhao-Chang%Guo%NULL%0,                        Jing-Qi%Wang%NULL%0,                        Jin-Cheng%Chen%NULL%0,                        Mei%Liu%NULL%0,                        Xi%Chen%NULL%0,                        Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                        Cara A.%Palmer%NULL%0,                        Jenna%Wilson%NULL%0,                        Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                        Sümeyye%Ulaş%NULL%0,                        Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                        Kun%Yang%NULL%1,                        Yujia%Cao%NULL%1,                        Mei Hong%Xiu%xiumeihong97@163.com%1,                        Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                        Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                         Li-Gang%Zhang%NULL%0,                         Lei-Lei%Wang%NULL%0,                         Zhao-Chang%Guo%NULL%0,                         Jing-Qi%Wang%NULL%0,                         Jin-Cheng%Chen%NULL%0,                         Mei%Liu%NULL%0,                         Xi%Chen%NULL%0,                         Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                         Cara A.%Palmer%NULL%0,                         Jenna%Wilson%NULL%0,                         Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                         Sümeyye%Ulaş%NULL%0,                         Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                         Kun%Yang%NULL%1,                         Yujia%Cao%NULL%1,                         Mei Hong%Xiu%xiumeihong97@163.com%1,                         Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                         Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -704,6 +770,9 @@
       <c r="I1" t="s">
         <v>46</v>
       </c>
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -719,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -732,6 +801,9 @@
       </c>
       <c r="I2" t="s">
         <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -748,7 +820,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -761,6 +833,9 @@
       </c>
       <c r="I3" t="s">
         <v>112</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -777,7 +852,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -790,6 +865,9 @@
       </c>
       <c r="I4" t="s">
         <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -806,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -819,6 +897,9 @@
       </c>
       <c r="I5" t="s">
         <v>110</v>
+      </c>
+      <c r="J5" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/99.xlsx
+++ b/Covid_19_Dataset_and_References/References/99.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="149">
   <si>
     <t>Doi</t>
   </si>
@@ -457,6 +457,30 @@
   </si>
   <si>
     <t>[Miao%Qu%NULL%1,                         Kun%Yang%NULL%1,                         Yujia%Cao%NULL%1,                         Mei Hong%Xiu%xiumeihong97@163.com%1,                         Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                         Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                          Li-Gang%Zhang%NULL%0,                          Lei-Lei%Wang%NULL%0,                          Zhao-Chang%Guo%NULL%0,                          Jing-Qi%Wang%NULL%0,                          Jin-Cheng%Chen%NULL%0,                          Mei%Liu%NULL%0,                          Xi%Chen%NULL%0,                          Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                          Cara A.%Palmer%NULL%0,                          Jenna%Wilson%NULL%0,                          Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                          Sümeyye%Ulaş%NULL%0,                          Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                          Kun%Yang%NULL%1,                          Yujia%Cao%NULL%1,                          Mei Hong%Xiu%xiumeihong97@163.com%1,                          Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                          Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                           Li-Gang%Zhang%NULL%0,                           Lei-Lei%Wang%NULL%0,                           Zhao-Chang%Guo%NULL%0,                           Jing-Qi%Wang%NULL%0,                           Jin-Cheng%Chen%NULL%0,                           Mei%Liu%NULL%0,                           Xi%Chen%NULL%0,                           Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0,                           Cara A.%Palmer%NULL%0,                           Jenna%Wilson%NULL%0,                           Natalie%Shook%NULL%0]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0,                           Sümeyye%Ulaş%NULL%0,                           Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Qu%NULL%1,                           Kun%Yang%NULL%1,                           Yujia%Cao%NULL%1,                           Mei Hong%Xiu%xiumeihong97@163.com%1,                           Xiang Yang%Zhang%zhangxy@psych.ac.cn%2,                           Xiang Yang%Zhang%zhangxy@psych.ac.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -788,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -820,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -852,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -884,7 +908,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
